--- a/hydrogen_comps/H12_chain/H12_0.94/H12_0.94_energies.xlsx
+++ b/hydrogen_comps/H12_chain/H12_0.94/H12_0.94_energies.xlsx
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1002135679</v>
+        <v>-0.1002133017</v>
       </c>
     </row>
     <row r="3">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-6.71344095</v>
+        <v>-6.71344068</v>
       </c>
     </row>
   </sheetData>
